--- a/Bases/indicadores_IBGE_SC.xlsx
+++ b/Bases/indicadores_IBGE_SC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinamusso/Desktop/Trabalho_Demografia/Bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33849D83-11F5-4243-A6C2-416C1AEBB20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF846435-3066-054B-801F-3BA2A89F29B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="700" windowWidth="25640" windowHeight="15760" xr2:uid="{98558ED6-A398-B445-A5E1-AD9DCE2A284D}"/>
   </bookViews>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Ano</t>
+  </si>
   <si>
     <t>Total</t>
   </si>
@@ -603,9 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50F59F3-1DC2-4C4D-B9DE-61083CAF6742}">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1947,72 +1948,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
